--- a/Excel/新章节掉落.xlsx
+++ b/Excel/新章节掉落.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="新挂机派遣" sheetId="76" r:id="rId1"/>
@@ -2029,8 +2029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2257,8 +2257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
